--- a/fuentes/contenidos/grado10/guion17/EscaletaCN_10_17_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion17/EscaletaCN_10_17_CO.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$257</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="206">
   <si>
     <t>Asignatura</t>
   </si>
@@ -442,12 +442,6 @@
     <t>Tercera Ley de Newton: Ley de acción-reacción</t>
   </si>
   <si>
-    <t>Comprende las Leyes de Newton</t>
-  </si>
-  <si>
-    <t>Interactivo que explica las leyes de Newton</t>
-  </si>
-  <si>
     <t>Entiende las leyes de Newton</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>Las leyes de las fuerzas</t>
   </si>
   <si>
-    <t>Identifica la primera ley de Newton</t>
-  </si>
-  <si>
     <t>Mapa conceptual del tema Las leyes de las fuerzas</t>
   </si>
   <si>
@@ -595,33 +586,12 @@
     <t>Analiza las características de un sistema en equilibrio</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F13-01</t>
-  </si>
-  <si>
     <t>Analiza la primera ley de Newton</t>
   </si>
   <si>
-    <t>Primera ley de Newton: El equilibrio</t>
-  </si>
-  <si>
     <t>Aplicación de la segunda Ley de Newton</t>
   </si>
   <si>
-    <t>Segunda ley de Newton: Relación masa y cambio de velocidad</t>
-  </si>
-  <si>
-    <t>La segunda ley de Newton: la masa y el cambio en su velocidad</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta la segunda ley de Newton a partir de relaciones entre la masa y la velocidad</t>
-  </si>
-  <si>
     <t>Motor que incluye preguntas de respuesta abierta del tema Las leyes de las fuerzas</t>
   </si>
   <si>
@@ -661,12 +631,6 @@
     <t>Recurso M4A-01</t>
   </si>
   <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
     <t>Actividad que permite completar el concepto de la primera ley de Newton</t>
   </si>
   <si>
@@ -680,13 +644,19 @@
   </si>
   <si>
     <t>Las fuerzas en equilibrio</t>
+  </si>
+  <si>
+    <t>Eniende las leyes de Newton</t>
+  </si>
+  <si>
+    <t>Profundizar en cada ley y si es posible abordar mas ejemplos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,8 +718,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +803,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1225,9 +1208,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1288,15 +1268,48 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,37 +1349,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1888,11 +1871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,114 +1904,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="81"/>
+      <c r="O1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="63" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="75"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="6" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H3" s="14">
         <v>1</v>
@@ -2037,10 +2020,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>5</v>
@@ -2049,24 +2032,26 @@
         <v>64</v>
       </c>
       <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
+      <c r="O3" s="19" t="s">
+        <v>205</v>
+      </c>
       <c r="P3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="21">
-        <v>6</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>209</v>
+      <c r="Q3" s="84">
+        <v>8</v>
+      </c>
+      <c r="R3" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="U3" s="84" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2074,20 +2059,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
@@ -2096,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>20</v>
@@ -2122,7 +2107,7 @@
         <v>129</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>130</v>
@@ -2133,58 +2118,58 @@
         <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="4" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="H5" s="35">
         <v>3</v>
       </c>
       <c r="I5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="O5" s="28"/>
       <c r="P5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="21">
-        <v>6</v>
+      <c r="Q5" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2192,20 +2177,20 @@
         <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H6" s="35">
         <v>4</v>
@@ -2214,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>19</v>
@@ -2226,9 +2211,11 @@
       <c r="N6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="28"/>
+      <c r="O6" s="28" t="s">
+        <v>139</v>
+      </c>
       <c r="P6" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="21" t="s">
         <v>122</v>
@@ -2240,7 +2227,7 @@
         <v>131</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="U6" s="21" t="s">
         <v>132</v>
@@ -2251,10 +2238,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>133</v>
@@ -2264,27 +2251,27 @@
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="35">
+        <v>140</v>
+      </c>
+      <c r="H7" s="56">
         <v>5</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="20" t="s">
         <v>19</v>
@@ -2299,7 +2286,7 @@
         <v>131</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>132</v>
@@ -2310,10 +2297,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>133</v>
@@ -2323,512 +2310,512 @@
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="35">
+        <v>202</v>
+      </c>
+      <c r="H8" s="56">
         <v>6</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="28" t="s">
-        <v>141</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O8" s="28"/>
       <c r="P8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="21">
+        <v>6</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="56">
+        <v>7</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="60"/>
+      <c r="P9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R9" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S9" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="U8" s="21" t="s">
+      <c r="T9" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="35">
-        <v>7</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="R9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="T9" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="27"/>
+        <v>145</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="35">
+        <v>146</v>
+      </c>
+      <c r="H10" s="56">
         <v>8</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="38"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="56">
+        <v>9</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="16" t="s">
+      <c r="J11" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="20" t="s">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q11" s="21">
         <v>6</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="T10" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="U10" s="21" t="s">
+      <c r="T11" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="U11" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="56" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="83">
-        <v>9</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="84"/>
-      <c r="P11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="S11" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="U11" s="53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="80"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="56">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>6</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="56">
+        <v>11</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="37">
-        <v>10</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="P13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="Q13" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="T13" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="K12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="R12" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="S12" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="T12" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="U12" s="40" t="s">
+      <c r="U13" s="52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="35">
-        <v>11</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>6</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S13" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="U13" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="27"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="35">
+        <v>152</v>
+      </c>
+      <c r="H14" s="56">
         <v>12</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="38"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="56">
+        <v>13</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="17" t="s">
+      <c r="J15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18" t="s">
+      <c r="M15" s="18"/>
+      <c r="N15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="20" t="s">
+      <c r="O15" s="20"/>
+      <c r="P15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="21">
-        <v>6</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="56" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="83">
-        <v>13</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="P15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="53" t="s">
+      <c r="Q15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="54" t="s">
+      <c r="R15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="T15" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="U15" s="53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="36"/>
+        <v>151</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="37">
+        <v>159</v>
+      </c>
+      <c r="H16" s="56">
         <v>14</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36" t="s">
+      <c r="L16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="40" t="s">
+      <c r="Q16" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S16" s="40" t="s">
+      <c r="S16" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T16" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="U16" s="40" t="s">
+      <c r="T16" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="U16" s="21" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2837,29 +2824,27 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="35">
+        <v>196</v>
+      </c>
+      <c r="H17" s="56">
         <v>15</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>19</v>
@@ -2869,7 +2854,7 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="20" t="s">
@@ -2882,13 +2867,13 @@
         <v>123</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2896,28 +2881,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>160</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="35">
+        <v>203</v>
+      </c>
+      <c r="H18" s="56">
         <v>16</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>162</v>
@@ -2926,13 +2907,13 @@
         <v>19</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="N18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="20"/>
       <c r="P18" s="20" t="s">
         <v>19</v>
       </c>
@@ -2952,234 +2933,234 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:21" s="55" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="B19" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="56">
         <v>17</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20" t="s">
+      <c r="M19" s="51"/>
+      <c r="N19" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="S19" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S19" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U19" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="35">
+        <v>168</v>
+      </c>
+      <c r="H20" s="56">
         <v>18</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="24" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20" t="s">
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="R20" s="22" t="s">
+      <c r="R20" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="T20" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="U20" s="21" t="s">
+      <c r="T20" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="U20" s="39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="56" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" s="83">
+      <c r="B21" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="56">
         <v>19</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="50" t="s">
+      <c r="J21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="53" t="s">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S21" s="53" t="s">
+      <c r="S21" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T21" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="U21" s="53" t="s">
+      <c r="T21" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="U21" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="36"/>
+        <v>167</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="37">
+        <v>178</v>
+      </c>
+      <c r="H22" s="56">
         <v>20</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="40" t="s">
+      <c r="O22" s="20"/>
+      <c r="P22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="U22" s="40" t="s">
-        <v>125</v>
+      <c r="S22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3187,113 +3168,103 @@
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="E23" s="26"/>
       <c r="F23" s="20"/>
       <c r="G23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="35">
+        <v>10</v>
+      </c>
+      <c r="H23" s="56">
         <v>21</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>173</v>
+      <c r="J23" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="K23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="T23" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="U23" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="21"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="20"/>
       <c r="G24" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" s="35">
+        <v>174</v>
+      </c>
+      <c r="H24" s="56">
         <v>22</v>
       </c>
       <c r="I24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="17" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>6</v>
       </c>
       <c r="R24" s="22" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3301,161 +3272,103 @@
         <v>17</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="20"/>
       <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="35">
+        <v>187</v>
+      </c>
+      <c r="H25" s="56">
         <v>23</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>184</v>
+      <c r="J25" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="N25" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="O25" s="20"/>
-      <c r="P25" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="21"/>
+      <c r="P25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>6</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="A26" s="29"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="26"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="35">
-        <v>24</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="17"/>
       <c r="M26" s="18"/>
-      <c r="N26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>6</v>
-      </c>
-      <c r="R26" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T26" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="U26" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="N26" s="18"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="21"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="26"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" s="35">
-        <v>25</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="N27" s="18"/>
       <c r="O27" s="20"/>
-      <c r="P27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>6</v>
-      </c>
-      <c r="R27" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S27" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T27" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="21"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
@@ -3465,7 +3378,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="20"/>
       <c r="G28" s="32"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="15"/>
       <c r="J28" s="33"/>
       <c r="K28" s="16"/>
@@ -3825,245 +3738,193 @@
       <c r="T43" s="23"/>
       <c r="U43" s="21"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="21"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="21"/>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4078,6 +3939,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4088,37 +3955,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K26:K45 P27:P45 K3:K24 P3:P24 I3:I45</xm:sqref>
+          <xm:sqref>K24:K43 P25:P43 K3:K22 P3:P22 I3:I43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L26:L45 L3:L24</xm:sqref>
+          <xm:sqref>L24:L43 L3:L22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion17\[EscaletaCN_10_02F.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K25:L25</xm:sqref>
+          <xm:sqref>K23:L23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N45</xm:sqref>
+          <xm:sqref>N3:N43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A45</xm:sqref>
+          <xm:sqref>A3:A43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M45</xm:sqref>
+          <xm:sqref>M3:M43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado10/guion17/EscaletaCN_10_17_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion17/EscaletaCN_10_17_CO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_17_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$256</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="204">
   <si>
     <t>Asignatura</t>
   </si>
@@ -563,12 +563,6 @@
   </si>
   <si>
     <t>Resuelve un crucigrama sobre la dinámica</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar un experimento para hallar los coeficientes de rozamiento entre dos superficies</t>
-  </si>
-  <si>
-    <t>Competencias: determinación del coeficiente de fricción</t>
   </si>
   <si>
     <t>Recurso M101AP-01</t>
@@ -1280,12 +1274,60 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,54 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="201">
@@ -1660,6 +1654,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1695,6 +1706,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1871,11 +1899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,114 +1932,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="76"/>
+      <c r="O1" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="79" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="64"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="80"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H3" s="14">
         <v>1</v>
@@ -2020,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>19</v>
@@ -2033,24 +2061,24 @@
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="84">
+      <c r="Q3" s="61">
         <v>8</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="S3" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="61" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2059,20 +2087,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
@@ -2081,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>20</v>
@@ -2107,7 +2135,7 @@
         <v>129</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U4" s="21" t="s">
         <v>130</v>
@@ -2118,16 +2146,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="4" t="s">
@@ -2177,10 +2205,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>133</v>
@@ -2238,10 +2266,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>133</v>
@@ -2297,10 +2325,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>133</v>
@@ -2310,7 +2338,7 @@
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H8" s="56">
         <v>6</v>
@@ -2319,7 +2347,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>20</v>
@@ -2345,7 +2373,7 @@
         <v>129</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U8" s="21" t="s">
         <v>130</v>
@@ -2356,10 +2384,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>133</v>
@@ -2415,10 +2443,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>145</v>
@@ -2472,10 +2500,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>145</v>
@@ -2483,7 +2511,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="27"/>
       <c r="G11" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H11" s="56">
         <v>9</v>
@@ -2492,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>20</v>
@@ -2518,7 +2546,7 @@
         <v>129</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U11" s="21" t="s">
         <v>130</v>
@@ -2529,10 +2557,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>145</v>
@@ -2540,7 +2568,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="27"/>
       <c r="G12" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H12" s="56">
         <v>10</v>
@@ -2549,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>20</v>
@@ -2575,7 +2603,7 @@
         <v>129</v>
       </c>
       <c r="T12" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U12" s="21" t="s">
         <v>130</v>
@@ -2586,10 +2614,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>145</v>
@@ -2647,10 +2675,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>151</v>
@@ -2704,10 +2732,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>151</v>
@@ -2763,10 +2791,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>151</v>
@@ -2824,10 +2852,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>151</v>
@@ -2835,7 +2863,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H17" s="56">
         <v>15</v>
@@ -2844,7 +2872,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>19</v>
@@ -2881,10 +2909,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>151</v>
@@ -2892,7 +2920,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="20"/>
       <c r="G18" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H18" s="56">
         <v>16</v>
@@ -2938,10 +2966,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>151</v>
@@ -2997,10 +3025,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>167</v>
@@ -3054,10 +3082,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>167</v>
@@ -3111,18 +3139,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="20"/>
       <c r="G22" s="4" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="H22" s="56">
         <v>20</v>
@@ -3130,48 +3158,36 @@
       <c r="I22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>177</v>
+      <c r="J22" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="K22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="S22" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>173</v>
@@ -3179,7 +3195,7 @@
       <c r="E23" s="26"/>
       <c r="F23" s="20"/>
       <c r="G23" s="4" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="H23" s="56">
         <v>21</v>
@@ -3187,36 +3203,50 @@
       <c r="I23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>181</v>
+      <c r="J23" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="20"/>
+      <c r="N23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="P23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="21"/>
+      <c r="Q23" s="21">
+        <v>6</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>173</v>
@@ -3224,7 +3254,7 @@
       <c r="E24" s="26"/>
       <c r="F24" s="20"/>
       <c r="G24" s="4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H24" s="56">
         <v>22</v>
@@ -3233,7 +3263,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>20</v>
@@ -3243,13 +3273,11 @@
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="Q24" s="21">
         <v>6</v>
@@ -3261,68 +3289,34 @@
         <v>129</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="U24" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="26"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="56">
-        <v>23</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="N25" s="18"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>6</v>
-      </c>
-      <c r="R25" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="T25" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="U25" s="21" t="s">
-        <v>130</v>
-      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="21"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
@@ -3332,7 +3326,7 @@
       <c r="E26" s="26"/>
       <c r="F26" s="20"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="15"/>
       <c r="J26" s="33"/>
       <c r="K26" s="16"/>
@@ -3715,216 +3709,199 @@
       <c r="T42" s="23"/>
       <c r="U42" s="21"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="21"/>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3939,12 +3916,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3955,37 +3926,37 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K24:K43 P25:P43 K3:K22 P3:P22 I3:I43</xm:sqref>
+          <xm:sqref>K23:K42 P24:P42 K3:K21 P3:P21 I3:I42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L24:L43 L3:L22</xm:sqref>
+          <xm:sqref>L23:L42 L3:L21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion17\[EscaletaCN_10_02F.xlsx]DATOS'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K23:L23</xm:sqref>
+          <xm:sqref>K22:L22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N43</xm:sqref>
+          <xm:sqref>N3:N42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A43</xm:sqref>
+          <xm:sqref>A3:A42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M43</xm:sqref>
+          <xm:sqref>M3:M42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
